--- a/01_基本設計書/03_外部レビュー/チーム1/基本設計書_基本情報管理(金原) -.xlsx
+++ b/01_基本設計書/03_外部レビュー/チーム1/基本設計書_基本情報管理(金原) -.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD7CE31-3E98-4374-A80A-7348F8A50F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,13 @@
     <sheet name="書式文字" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">IO関連図!$A$1:$AG$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面レイアウト（ログイン）'!$A$1:$AG$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">書式文字!$A$1:$F$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$41</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">IO関連図!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'表紙'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'IO関連図'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'画面レイアウト（ログイン）'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙'!A1:AF41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'IO関連図'!A1:AG44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面レイアウト（ログイン）'!A1:AG44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'書式文字'!A1:F23</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>基本設計書</t>
   </si>
@@ -104,13 +104,6 @@
   </si>
   <si>
     <t>備考</t>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>画面レイアウト</t>
@@ -286,71 +279,36 @@
   </si>
   <si>
     <t>ver0.1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>チーム1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>新規作成</t>
-    </r>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>チーム1新規作成</t>
   </si>
   <si>
     <t>数字</t>
-    <rPh sb="0" eb="2">
-      <t>スウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>右揃え</t>
-    <rPh sb="0" eb="1">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ソロ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>文字</t>
-    <rPh sb="0" eb="2">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>左揃え</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ソロ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>金額</t>
-    <rPh sb="0" eb="2">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員IDまたはパスワードが正しくありません</t>
+  </si>
+  <si>
+    <t>社員IDチェックを実施し、存在しない場合,は、以下のメッセージを表示</t>
+  </si>
+  <si>
+    <t>社員IDチェックを実施し、存在しない場合、又はパスワードが、以下のメッセージを表示</t>
+  </si>
+  <si>
+    <t>社員IDチェックを実施し、存在しない場合、又はパスワードが一致しない場合、以下のメッセージを表示</t>
   </si>
 </sst>
 </file>
@@ -674,7 +632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -920,6 +878,12 @@
     </xf>
     <xf numFmtId="187" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1022,15 +986,9 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="吹き出し: 角を丸めた四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0975207C-37B1-F2AF-0F30-25DD95974949}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="吹き出し: 角を丸めた四角形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1094,15 +1052,9 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="フローチャート: 処理 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D91BA2-18BB-0B60-0E81-013995D0DB1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="フローチャート: 処理 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1131,7 +1083,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1166,18 +1118,9 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="フローチャート: 準備 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B3B3C4-C910-3F06-160F-9E5CB8627852}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{05D91BA2-18BB-0B60-0E81-013995D0DB1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="フローチャート: 準備 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1206,7 +1149,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1241,18 +1184,9 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="フローチャート: 準備 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC059A1-5DF4-0205-D349-0A4CF05C4BEE}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{23B3B3C4-C910-3F06-160F-9E5CB8627852}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="フローチャート: 準備 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1281,7 +1215,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1316,18 +1250,9 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="フローチャート: 準備 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DF78F0-E7FA-868D-AE16-F942DFC82B78}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9FC059A1-5DF4-0205-D349-0A4CF05C4BEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="フローチャート: 準備 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1356,7 +1281,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1391,18 +1316,9 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="フローチャート: 磁気ディスク 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D96658B0-555E-906A-4BD7-51D01064C717}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{76DF78F0-E7FA-868D-AE16-F942DFC82B78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="フローチャート: 磁気ディスク 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1431,7 +1347,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1466,18 +1382,9 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="フローチャート: 処理 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BBF201B-5833-47D7-AAF7-223CF13AE424}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D96658B0-555E-906A-4BD7-51D01064C717}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="フローチャート: 処理 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1506,7 +1413,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1539,35 +1446,17 @@
       <xdr:col>47</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50242D42-C0C8-4E4E-A0BD-C0A6E039BEF2}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8BBF201B-5833-47D7-AAF7-223CF13AE424}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="3" idx="1"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{05D91BA2-18BB-0B60-0E81-013995D0DB1E}" end="{23B3B3C4-C910-3F06-160F-9E5CB8627852}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17345025" y="1400175"/>
-          <a:ext cx="1114425" cy="33338"/>
+          <a:ext cx="1114425" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1604,34 +1493,17 @@
       <xdr:col>50</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線コネクタ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FE6171-3072-7E1D-D381-E8BE6D46BEA1}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{50242D42-C0C8-4E4E-A0BD-C0A6E039BEF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:endCxn id="4" idx="1"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{9FC059A1-5DF4-0205-D349-0A4CF05C4BEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19840575" y="1419225"/>
-          <a:ext cx="990600" cy="52388"/>
+          <a:ext cx="990600" cy="47625"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1662,40 +1534,22 @@
       <xdr:col>53</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328FC0F7-B903-F9F8-BDEF-E67922485143}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B2FE6171-3072-7E1D-D381-E8BE6D46BEA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{9FC059A1-5DF4-0205-D349-0A4CF05C4BEE}" end="{76DF78F0-E7FA-868D-AE16-F942DFC82B78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線コネクタ 9"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22631400" y="1471613"/>
+          <a:off x="22631400" y="1466850"/>
           <a:ext cx="971550" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1731,37 +1585,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>385763</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE38CFA-FF44-0DA7-2F94-B96627AA6F03}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{328FC0F7-B903-F9F8-BDEF-E67922485143}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="6" idx="1"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{23B3B3C4-C910-3F06-160F-9E5CB8627852}" end="{D96658B0-555E-906A-4BD7-51D01064C717}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19164300" y="1752600"/>
-          <a:ext cx="357188" cy="1733550"/>
+          <a:ext cx="352425" cy="1733550"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1800,27 +1636,10 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{689D7005-639B-6D1F-942C-9CC6F35F8E51}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0BE38CFA-FF44-0DA7-2F94-B96627AA6F03}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="5" idx="2"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{76DF78F0-E7FA-868D-AE16-F942DFC82B78}" end="{00000000-0000-0000-0000-000000000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
@@ -1864,27 +1683,10 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD760313-50C5-E9EA-3EFB-6F815E1E3F54}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{689D7005-639B-6D1F-942C-9CC6F35F8E51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="4" idx="2"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{9FC059A1-5DF4-0205-D349-0A4CF05C4BEE}" end="{00000000-0000-0000-0000-000000000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
@@ -1929,28 +1731,10 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線コネクタ 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DDC56DB-7A42-D458-897E-462DAD49175B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DD760313-50C5-E9EA-3EFB-6F815E1E3F54}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="5" idx="2"/>
-          <a:endCxn id="7" idx="0"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{76DF78F0-E7FA-868D-AE16-F942DFC82B78}" end="{8BBF201B-5833-47D7-AAF7-223CF13AE424}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線コネクタ 13"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
@@ -2284,20 +2068,52 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AC24" sqref="AC24:AE24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="13" customWidth="1"/>
-    <col min="7" max="32" width="4.125" style="2" customWidth="1"/>
-    <col min="33" max="36" width="4" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="4.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="4.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="4.125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="4.125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="4.125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="4.125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="4.125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="4.125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="4.125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="4.125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="4.125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="4" style="2" customWidth="1"/>
+    <col min="34" max="34" width="4" style="2" customWidth="1"/>
+    <col min="35" max="35" width="4" style="2" customWidth="1"/>
+    <col min="36" max="36" width="4" style="2" customWidth="1"/>
     <col min="37" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="12">
+    <row r="1" ht="12">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2331,7 +2147,7 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32" ht="12.75" customHeight="1">
+    <row r="2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2365,13 +2181,13 @@
       <c r="AE2" s="6"/>
       <c r="AF2" s="7"/>
     </row>
-    <row r="3" spans="1:32" ht="12.75" customHeight="1">
+    <row r="3">
       <c r="A3" s="8"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="AF3" s="9"/>
     </row>
-    <row r="4" spans="1:32" ht="12.75" customHeight="1">
+    <row r="4">
       <c r="A4" s="8"/>
       <c r="B4" s="67" t="s">
         <v>0</v>
@@ -2407,7 +2223,7 @@
       <c r="AE4" s="67"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32" ht="12.75" customHeight="1">
+    <row r="5">
       <c r="A5" s="8"/>
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
@@ -2441,37 +2257,37 @@
       <c r="AE5" s="67"/>
       <c r="AF5" s="9"/>
     </row>
-    <row r="6" spans="1:32" ht="12.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="8"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32" ht="12.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="8"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="AF7" s="9"/>
     </row>
-    <row r="8" spans="1:32" ht="12.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="8"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32" ht="12.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="8"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="AF9" s="9"/>
     </row>
-    <row r="10" spans="1:32" ht="12.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="8"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32" ht="12">
+    <row r="11" ht="12">
       <c r="A11" s="8"/>
       <c r="B11" s="68" t="s">
         <v>1</v>
@@ -2514,7 +2330,7 @@
       </c>
       <c r="AE11" s="70"/>
     </row>
-    <row r="12" spans="1:32" ht="12">
+    <row r="12" ht="12">
       <c r="A12" s="8"/>
       <c r="B12" s="71" t="s">
         <v>6</v>
@@ -2557,7 +2373,7 @@
       </c>
       <c r="AE12" s="94"/>
     </row>
-    <row r="13" spans="1:32" ht="12">
+    <row r="13" ht="12">
       <c r="A13" s="8"/>
       <c r="B13" s="74"/>
       <c r="C13" s="75"/>
@@ -2590,61 +2406,61 @@
       <c r="AD13" s="95"/>
       <c r="AE13" s="96"/>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="8"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32" ht="12.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="8"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="AF15" s="9"/>
     </row>
-    <row r="16" spans="1:32" ht="12.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="8"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:37" ht="12.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="8"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="I17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="AF17" s="9"/>
     </row>
-    <row r="18" spans="1:37" ht="12.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="8"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="I18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:37" ht="12.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="8"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="AF19" s="9"/>
     </row>
-    <row r="20" spans="1:37" ht="12.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="8"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="AF20" s="9"/>
     </row>
-    <row r="21" spans="1:37" ht="12.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="8"/>
       <c r="B21" s="22" t="s">
         <v>11</v>
@@ -2653,13 +2469,13 @@
       <c r="F21" s="2"/>
       <c r="AF21" s="9"/>
     </row>
-    <row r="22" spans="1:37" ht="12.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="8"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="AF22" s="9"/>
     </row>
-    <row r="23" spans="1:37" ht="12.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="8"/>
       <c r="B23" s="61" t="s">
         <v>12</v>
@@ -2701,13 +2517,13 @@
       <c r="AE23" s="63"/>
       <c r="AF23" s="9"/>
       <c r="AK23" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" ht="12.75" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="8"/>
       <c r="B24" s="61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="62"/>
       <c r="D24" s="62"/>
@@ -2719,7 +2535,7 @@
       <c r="H24" s="102"/>
       <c r="I24" s="103"/>
       <c r="J24" s="97" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K24" s="98"/>
       <c r="L24" s="98"/>
@@ -2749,7 +2565,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="12.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="8"/>
       <c r="B25" s="61"/>
       <c r="C25" s="62"/>
@@ -2783,7 +2599,7 @@
       <c r="AE25" s="63"/>
       <c r="AF25" s="9"/>
     </row>
-    <row r="26" spans="1:37" ht="12.75" customHeight="1">
+    <row r="26">
       <c r="A26" s="8"/>
       <c r="B26" s="61"/>
       <c r="C26" s="62"/>
@@ -2817,7 +2633,7 @@
       <c r="AE26" s="63"/>
       <c r="AF26" s="9"/>
     </row>
-    <row r="27" spans="1:37" ht="12.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="8"/>
       <c r="B27" s="61"/>
       <c r="C27" s="62"/>
@@ -2851,7 +2667,7 @@
       <c r="AE27" s="63"/>
       <c r="AF27" s="9"/>
     </row>
-    <row r="28" spans="1:37" ht="12.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="8"/>
       <c r="B28" s="61"/>
       <c r="C28" s="62"/>
@@ -2885,7 +2701,7 @@
       <c r="AE28" s="63"/>
       <c r="AF28" s="9"/>
     </row>
-    <row r="29" spans="1:37" ht="12.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="8"/>
       <c r="B29" s="61"/>
       <c r="C29" s="62"/>
@@ -2919,7 +2735,7 @@
       <c r="AE29" s="63"/>
       <c r="AF29" s="9"/>
     </row>
-    <row r="30" spans="1:37" ht="12.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="8"/>
       <c r="B30" s="61"/>
       <c r="C30" s="62"/>
@@ -2953,7 +2769,7 @@
       <c r="AE30" s="63"/>
       <c r="AF30" s="9"/>
     </row>
-    <row r="31" spans="1:37" ht="12.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="8"/>
       <c r="B31" s="61"/>
       <c r="C31" s="62"/>
@@ -2987,7 +2803,7 @@
       <c r="AE31" s="63"/>
       <c r="AF31" s="9"/>
     </row>
-    <row r="32" spans="1:37" ht="12.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="8"/>
       <c r="B32" s="61"/>
       <c r="C32" s="62"/>
@@ -3021,7 +2837,7 @@
       <c r="AE32" s="63"/>
       <c r="AF32" s="9"/>
     </row>
-    <row r="33" spans="1:32" ht="12.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="8"/>
       <c r="B33" s="61"/>
       <c r="C33" s="62"/>
@@ -3055,7 +2871,7 @@
       <c r="AE33" s="63"/>
       <c r="AF33" s="9"/>
     </row>
-    <row r="34" spans="1:32" ht="12.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="8"/>
       <c r="B34" s="61"/>
       <c r="C34" s="62"/>
@@ -3089,7 +2905,7 @@
       <c r="AE34" s="63"/>
       <c r="AF34" s="9"/>
     </row>
-    <row r="35" spans="1:32" ht="12.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="8"/>
       <c r="B35" s="61"/>
       <c r="C35" s="62"/>
@@ -3123,7 +2939,7 @@
       <c r="AE35" s="63"/>
       <c r="AF35" s="9"/>
     </row>
-    <row r="36" spans="1:32" ht="12.75" customHeight="1">
+    <row r="36">
       <c r="A36" s="8"/>
       <c r="B36" s="61"/>
       <c r="C36" s="62"/>
@@ -3157,7 +2973,7 @@
       <c r="AE36" s="63"/>
       <c r="AF36" s="9"/>
     </row>
-    <row r="37" spans="1:32" ht="12.75" customHeight="1">
+    <row r="37">
       <c r="A37" s="8"/>
       <c r="B37" s="61"/>
       <c r="C37" s="62"/>
@@ -3191,7 +3007,7 @@
       <c r="AE37" s="63"/>
       <c r="AF37" s="9"/>
     </row>
-    <row r="38" spans="1:32" ht="12.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="8"/>
       <c r="B38" s="61"/>
       <c r="C38" s="62"/>
@@ -3225,7 +3041,7 @@
       <c r="AE38" s="63"/>
       <c r="AF38" s="9"/>
     </row>
-    <row r="39" spans="1:32" ht="12.75" customHeight="1">
+    <row r="39">
       <c r="A39" s="8"/>
       <c r="B39" s="61"/>
       <c r="C39" s="62"/>
@@ -3259,7 +3075,7 @@
       <c r="AE39" s="63"/>
       <c r="AF39" s="9"/>
     </row>
-    <row r="40" spans="1:32" ht="12.75" customHeight="1">
+    <row r="40">
       <c r="A40" s="8"/>
       <c r="B40" s="61"/>
       <c r="C40" s="62"/>
@@ -3293,7 +3109,7 @@
       <c r="AE40" s="63"/>
       <c r="AF40" s="9"/>
     </row>
-    <row r="41" spans="1:32" ht="12.75" customHeight="1">
+    <row r="41">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -3331,87 +3147,87 @@
   <mergeCells count="83">
     <mergeCell ref="B4:AE5"/>
     <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
     <mergeCell ref="B12:F13"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="G11:L11"/>
     <mergeCell ref="G12:L13"/>
+    <mergeCell ref="M12:AA13"/>
+    <mergeCell ref="AB12:AC13"/>
     <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AB12:AC13"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="M12:AA13"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
     <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
     <mergeCell ref="J38:AB38"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="B39:E39"/>
     <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
     <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:AB40"/>
     <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="J40:AB40"/>
-    <mergeCell ref="J39:AB39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -3432,16 +3248,49 @@
       <selection pane="bottomLeft" activeCell="AT19" sqref="AT19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="13" customWidth="1"/>
-    <col min="7" max="33" width="4.125" style="2" customWidth="1"/>
-    <col min="34" max="37" width="4" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="4.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="4.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="4.125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="4.125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="4.125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="4.125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="4.125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="4.125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="4.125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="4.125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="4.125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="4.125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="4" style="2" customWidth="1"/>
+    <col min="35" max="35" width="4" style="2" customWidth="1"/>
+    <col min="36" max="36" width="4" style="2" customWidth="1"/>
+    <col min="37" max="37" width="4" style="2" customWidth="1"/>
     <col min="38" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" ht="12.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="83" t="s">
         <v>16</v>
       </c>
@@ -3493,7 +3342,7 @@
       <c r="BC1" s="81"/>
       <c r="BD1" s="81"/>
     </row>
-    <row r="2" spans="1:76" ht="12">
+    <row r="2" ht="12">
       <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
@@ -3561,9 +3410,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:76" ht="12">
+    <row r="3" ht="12">
       <c r="A3" s="71" t="str">
-        <f>表紙!B12</f>
+        <f>'表紙'!B12</f>
         <v>勤怠管理システム</v>
       </c>
       <c r="B3" s="72"/>
@@ -3572,7 +3421,7 @@
       <c r="E3" s="72"/>
       <c r="F3" s="73"/>
       <c r="G3" s="71" t="str">
-        <f>表紙!G12</f>
+        <f>'表紙'!G12</f>
         <v>基本情報管理</v>
       </c>
       <c r="H3" s="72"/>
@@ -3581,7 +3430,7 @@
       <c r="K3" s="72"/>
       <c r="L3" s="73"/>
       <c r="M3" s="71" t="str">
-        <f>表紙!M12</f>
+        <f>'表紙'!M12</f>
         <v>ログイン（画面）／社員情報一覧（画面）／基本情報登録（画面）</v>
       </c>
       <c r="N3" s="72"/>
@@ -3601,12 +3450,12 @@
       <c r="AB3" s="72"/>
       <c r="AC3" s="73"/>
       <c r="AD3" s="71" t="str">
-        <f>表紙!AB12</f>
+        <f>'表紙'!AB12</f>
         <v>TPC</v>
       </c>
       <c r="AE3" s="73"/>
       <c r="AF3" s="71" t="str">
-        <f>表紙!AD12</f>
+        <f>'表紙'!AD12</f>
         <v>チーム1</v>
       </c>
       <c r="AG3" s="73"/>
@@ -3634,7 +3483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:76" ht="12">
+    <row r="4" ht="12">
       <c r="A4" s="74"/>
       <c r="B4" s="75"/>
       <c r="C4" s="75"/>
@@ -3682,7 +3531,7 @@
       <c r="BC4" s="82"/>
       <c r="BD4" s="82"/>
     </row>
-    <row r="5" spans="1:76" ht="12.75" customHeight="1">
+    <row r="5">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -3717,7 +3566,7 @@
       <c r="AF5" s="16"/>
       <c r="AG5" s="18"/>
     </row>
-    <row r="6" spans="1:76" ht="12.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -3785,7 +3634,7 @@
       <c r="BW6" s="52"/>
       <c r="BX6" s="53"/>
     </row>
-    <row r="7" spans="1:76" ht="12.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="8"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -3824,7 +3673,7 @@
       <c r="BW7" s="55"/>
       <c r="BX7" s="56"/>
     </row>
-    <row r="8" spans="1:76" ht="12.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="8"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3860,7 +3709,7 @@
       <c r="BW8" s="55"/>
       <c r="BX8" s="56"/>
     </row>
-    <row r="9" spans="1:76" ht="12.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="8"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -3897,7 +3746,7 @@
       <c r="BW9" s="55"/>
       <c r="BX9" s="56"/>
     </row>
-    <row r="10" spans="1:76" ht="12.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="8"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -3934,7 +3783,7 @@
       <c r="BW10" s="55"/>
       <c r="BX10" s="56"/>
     </row>
-    <row r="11" spans="1:76" ht="12.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="8"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -3970,7 +3819,7 @@
       <c r="BW11" s="55"/>
       <c r="BX11" s="56"/>
     </row>
-    <row r="12" spans="1:76" ht="12.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="8"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -4006,7 +3855,7 @@
       <c r="BW12" s="55"/>
       <c r="BX12" s="56"/>
     </row>
-    <row r="13" spans="1:76" ht="12.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="8"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -4041,7 +3890,7 @@
       <c r="BW13" s="55"/>
       <c r="BX13" s="56"/>
     </row>
-    <row r="14" spans="1:76" ht="12.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="8"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -4078,7 +3927,7 @@
       <c r="BW14" s="55"/>
       <c r="BX14" s="56"/>
     </row>
-    <row r="15" spans="1:76" ht="12.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="8"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -4115,7 +3964,7 @@
       <c r="BW15" s="55"/>
       <c r="BX15" s="56"/>
     </row>
-    <row r="16" spans="1:76" ht="12.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="8"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -4145,7 +3994,7 @@
       <c r="BW16" s="55"/>
       <c r="BX16" s="56"/>
     </row>
-    <row r="17" spans="1:76" ht="12.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="8"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -4176,7 +4025,7 @@
       <c r="BW17" s="55"/>
       <c r="BX17" s="56"/>
     </row>
-    <row r="18" spans="1:76" ht="12.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="8"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -4206,7 +4055,7 @@
       <c r="BW18" s="55"/>
       <c r="BX18" s="56"/>
     </row>
-    <row r="19" spans="1:76" ht="12.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="8"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -4236,7 +4085,7 @@
       <c r="BW19" s="55"/>
       <c r="BX19" s="56"/>
     </row>
-    <row r="20" spans="1:76" ht="12.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="8"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -4266,7 +4115,7 @@
       <c r="BW20" s="55"/>
       <c r="BX20" s="56"/>
     </row>
-    <row r="21" spans="1:76" ht="12.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="8"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -4296,7 +4145,7 @@
       <c r="BW21" s="55"/>
       <c r="BX21" s="56"/>
     </row>
-    <row r="22" spans="1:76" ht="12.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="8"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -4326,7 +4175,7 @@
       <c r="BW22" s="55"/>
       <c r="BX22" s="56"/>
     </row>
-    <row r="23" spans="1:76" ht="12.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="8"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -4356,7 +4205,7 @@
       <c r="BW23" s="55"/>
       <c r="BX23" s="56"/>
     </row>
-    <row r="24" spans="1:76" ht="12.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="8"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -4394,7 +4243,7 @@
       <c r="BW24" s="55"/>
       <c r="BX24" s="56"/>
     </row>
-    <row r="25" spans="1:76" ht="12.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="8"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -4432,7 +4281,7 @@
       <c r="BW25" s="55"/>
       <c r="BX25" s="56"/>
     </row>
-    <row r="26" spans="1:76" ht="12.75" customHeight="1">
+    <row r="26">
       <c r="A26" s="8"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -4470,7 +4319,7 @@
       <c r="BW26" s="55"/>
       <c r="BX26" s="56"/>
     </row>
-    <row r="27" spans="1:76" ht="12.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="8"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -4508,7 +4357,7 @@
       <c r="BW27" s="55"/>
       <c r="BX27" s="56"/>
     </row>
-    <row r="28" spans="1:76" ht="12.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="8"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -4546,7 +4395,7 @@
       <c r="BW28" s="55"/>
       <c r="BX28" s="56"/>
     </row>
-    <row r="29" spans="1:76" ht="12.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="8"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -4584,7 +4433,7 @@
       <c r="BW29" s="55"/>
       <c r="BX29" s="56"/>
     </row>
-    <row r="30" spans="1:76" ht="12.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="8"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -4623,7 +4472,7 @@
       <c r="BW30" s="55"/>
       <c r="BX30" s="56"/>
     </row>
-    <row r="31" spans="1:76" ht="12.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="8"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -4655,7 +4504,7 @@
       <c r="BW31" s="55"/>
       <c r="BX31" s="56"/>
     </row>
-    <row r="32" spans="1:76" ht="12.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="8"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -4693,7 +4542,7 @@
       <c r="BW32" s="55"/>
       <c r="BX32" s="56"/>
     </row>
-    <row r="33" spans="1:76" ht="12.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="8"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -4731,7 +4580,7 @@
       <c r="BW33" s="55"/>
       <c r="BX33" s="56"/>
     </row>
-    <row r="34" spans="1:76" ht="12.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="8"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -4763,7 +4612,7 @@
       <c r="BW34" s="55"/>
       <c r="BX34" s="56"/>
     </row>
-    <row r="35" spans="1:76" ht="12.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="8"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -4794,7 +4643,7 @@
       <c r="BW35" s="55"/>
       <c r="BX35" s="56"/>
     </row>
-    <row r="36" spans="1:76" ht="12.75" customHeight="1">
+    <row r="36">
       <c r="A36" s="8"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -4832,7 +4681,7 @@
       <c r="BW36" s="55"/>
       <c r="BX36" s="56"/>
     </row>
-    <row r="37" spans="1:76" ht="12.75" customHeight="1">
+    <row r="37">
       <c r="A37" s="8"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -4863,7 +4712,7 @@
       <c r="BW37" s="55"/>
       <c r="BX37" s="56"/>
     </row>
-    <row r="38" spans="1:76" ht="12.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="8"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -4902,7 +4751,7 @@
       <c r="BW38" s="55"/>
       <c r="BX38" s="56"/>
     </row>
-    <row r="39" spans="1:76" ht="12.75" customHeight="1">
+    <row r="39">
       <c r="A39" s="8"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -4941,7 +4790,7 @@
       <c r="BW39" s="55"/>
       <c r="BX39" s="56"/>
     </row>
-    <row r="40" spans="1:76" ht="12.75" customHeight="1">
+    <row r="40">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -5009,7 +4858,7 @@
       <c r="BW40" s="58"/>
       <c r="BX40" s="59"/>
     </row>
-    <row r="41" spans="1:76" ht="12.75" customHeight="1">
+    <row r="41">
       <c r="A41" s="23" t="s">
         <v>19</v>
       </c>
@@ -5017,7 +4866,7 @@
       <c r="F41" s="2"/>
       <c r="AG41" s="9"/>
       <c r="AR41" s="60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS41" s="55"/>
       <c r="AT41" s="55"/>
@@ -5052,7 +4901,7 @@
       <c r="BW41" s="55"/>
       <c r="BX41" s="56"/>
     </row>
-    <row r="42" spans="1:76" ht="12.75" customHeight="1">
+    <row r="42">
       <c r="A42" s="8"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -5091,7 +4940,7 @@
       <c r="BW42" s="55"/>
       <c r="BX42" s="56"/>
     </row>
-    <row r="43" spans="1:76" ht="12.75" customHeight="1">
+    <row r="43">
       <c r="A43" s="8"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -5130,7 +4979,7 @@
       <c r="BW43" s="55"/>
       <c r="BX43" s="56"/>
     </row>
-    <row r="44" spans="1:76" ht="12.75" customHeight="1">
+    <row r="44">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -5200,20 +5049,20 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="AR1:BD1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:BB2"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="M3:AC4"/>
     <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AR1:BD1"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:BB2"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="AR3:AS4"/>
     <mergeCell ref="AT3:AU4"/>
     <mergeCell ref="AV3:BB4"/>
@@ -5234,23 +5083,56 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AL44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB25" sqref="AB25"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="O1" tabSelected="1">
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM23" sqref="AM23" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="13" customWidth="1"/>
-    <col min="7" max="33" width="4.125" style="2" customWidth="1"/>
-    <col min="34" max="37" width="4" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="4.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="4.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="4.125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="4.125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="4.125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="4.125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="4.125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="4.125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="4.125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="4.125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="4.125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="4.125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="4" style="2" customWidth="1"/>
+    <col min="35" max="35" width="4" style="2" customWidth="1"/>
+    <col min="36" max="36" width="4" style="2" customWidth="1"/>
+    <col min="37" max="37" width="4" style="2" customWidth="1"/>
     <col min="38" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="12.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
@@ -5285,7 +5167,7 @@
       <c r="AF1" s="83"/>
       <c r="AG1" s="83"/>
     </row>
-    <row r="2" spans="1:36" ht="12">
+    <row r="2" ht="12">
       <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
@@ -5330,9 +5212,9 @@
       </c>
       <c r="AG2" s="70"/>
     </row>
-    <row r="3" spans="1:36" ht="12">
+    <row r="3" ht="12">
       <c r="A3" s="71" t="str">
-        <f>表紙!B12</f>
+        <f>'表紙'!B12</f>
         <v>勤怠管理システム</v>
       </c>
       <c r="B3" s="72"/>
@@ -5341,7 +5223,7 @@
       <c r="E3" s="72"/>
       <c r="F3" s="73"/>
       <c r="G3" s="71" t="str">
-        <f>表紙!G12</f>
+        <f>'表紙'!G12</f>
         <v>基本情報管理</v>
       </c>
       <c r="H3" s="72"/>
@@ -5350,7 +5232,7 @@
       <c r="K3" s="72"/>
       <c r="L3" s="73"/>
       <c r="M3" s="71" t="str">
-        <f>表紙!M12</f>
+        <f>'表紙'!M12</f>
         <v>ログイン（画面）／社員情報一覧（画面）／基本情報登録（画面）</v>
       </c>
       <c r="N3" s="72"/>
@@ -5370,16 +5252,16 @@
       <c r="AB3" s="72"/>
       <c r="AC3" s="73"/>
       <c r="AD3" s="71" t="str">
-        <f>表紙!AB12</f>
+        <f>'表紙'!AB12</f>
         <v>TPC</v>
       </c>
       <c r="AE3" s="73"/>
       <c r="AF3" s="71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG3" s="73"/>
     </row>
-    <row r="4" spans="1:36" ht="12">
+    <row r="4" ht="12">
       <c r="A4" s="74"/>
       <c r="B4" s="75"/>
       <c r="C4" s="75"/>
@@ -5414,7 +5296,7 @@
       <c r="AF4" s="74"/>
       <c r="AG4" s="76"/>
     </row>
-    <row r="5" spans="1:36" ht="12.75" customHeight="1">
+    <row r="5">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -5449,7 +5331,7 @@
       <c r="AF5" s="16"/>
       <c r="AG5" s="18"/>
     </row>
-    <row r="6" spans="1:36" ht="12.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -5484,7 +5366,7 @@
       <c r="AF6" s="20"/>
       <c r="AG6" s="21"/>
     </row>
-    <row r="7" spans="1:36" ht="12.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="8"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -5519,7 +5401,7 @@
       <c r="AF7" s="25"/>
       <c r="AG7" s="9"/>
     </row>
-    <row r="8" spans="1:36" ht="12.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="8"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -5554,10 +5436,10 @@
       <c r="AF8" s="25"/>
       <c r="AG8" s="9"/>
       <c r="AI8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" ht="12.75" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="8"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -5592,10 +5474,10 @@
       <c r="AF9" s="25"/>
       <c r="AG9" s="9"/>
       <c r="AI9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" ht="12.75" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="8"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -5630,7 +5512,7 @@
       <c r="AF10" s="25"/>
       <c r="AG10" s="9"/>
     </row>
-    <row r="11" spans="1:36" ht="12.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="8"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -5665,7 +5547,7 @@
       <c r="AF11" s="25"/>
       <c r="AG11" s="9"/>
     </row>
-    <row r="12" spans="1:36" ht="12.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="8"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -5700,21 +5582,18 @@
       <c r="AF12" s="25"/>
       <c r="AG12" s="9"/>
     </row>
-    <row r="13" spans="1:36" ht="12.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="8"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="26"/>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="27" t="s">
         <v>25</v>
-      </c>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13" s="27" t="s">
-        <v>26</v>
       </c>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
@@ -5739,7 +5618,7 @@
       <c r="AF13" s="25"/>
       <c r="AG13" s="9"/>
     </row>
-    <row r="14" spans="1:36" ht="12.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="8"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -5774,24 +5653,18 @@
       <c r="AF14" s="25"/>
       <c r="AG14" s="9"/>
     </row>
-    <row r="15" spans="1:36" ht="12.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="8"/>
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15"/>
-      <c r="H15" s="89" t="s">
-        <v>27</v>
-      </c>
+      <c r="H15" s="89"/>
       <c r="I15" s="89"/>
       <c r="J15" s="89"/>
       <c r="K15" s="89"/>
       <c r="L15" s="89"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="30"/>
       <c r="R15" s="30"/>
@@ -5811,10 +5684,10 @@
       <c r="AF15" s="30"/>
       <c r="AG15" s="9"/>
       <c r="AI15" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" ht="12.75" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="8"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -5823,10 +5696,6 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="26"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
@@ -5849,10 +5718,10 @@
       <c r="AF16" s="30"/>
       <c r="AG16" s="9"/>
       <c r="AJ16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" ht="12.75" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="8"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -5860,13 +5729,13 @@
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="K17" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
@@ -5891,10 +5760,10 @@
       <c r="AF17" s="30"/>
       <c r="AG17" s="9"/>
       <c r="AJ17" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" ht="12.75" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="8"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -5903,14 +5772,6 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="26"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
       <c r="Q18" s="25"/>
       <c r="R18" s="25"/>
       <c r="S18" s="26"/>
@@ -5929,30 +5790,27 @@
       <c r="AF18" s="30"/>
       <c r="AG18" s="9"/>
       <c r="AK18" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" ht="12.75" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="8"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19"/>
-      <c r="H19" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="88"/>
-      <c r="Q19"/>
-      <c r="R19"/>
+      <c r="H19" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="105"/>
       <c r="S19" s="26"/>
       <c r="T19" s="25"/>
       <c r="U19" s="25"/>
@@ -5968,11 +5826,12 @@
       <c r="AE19" s="25"/>
       <c r="AF19" s="30"/>
       <c r="AG19" s="9"/>
-      <c r="AL19" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" ht="12.75" customHeight="1">
+      <c r="AK19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL19" s="2"/>
+    </row>
+    <row r="20">
       <c r="A20" s="8"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -5981,20 +5840,11 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="26"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
       <c r="Q20" s="30"/>
       <c r="R20" s="84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S20" s="85"/>
-      <c r="T20"/>
       <c r="U20" s="25"/>
       <c r="V20" s="26"/>
       <c r="W20" s="25"/>
@@ -6008,11 +5858,9 @@
       <c r="AE20" s="25"/>
       <c r="AF20" s="30"/>
       <c r="AG20" s="9"/>
-      <c r="AK20" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" ht="12.75" customHeight="1">
+      <c r="AK20" s="2"/>
+    </row>
+    <row r="21">
       <c r="A21" s="8"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -6029,8 +5877,6 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
       <c r="P21" s="25"/>
-      <c r="Q21"/>
-      <c r="R21"/>
       <c r="S21" s="26"/>
       <c r="T21" s="25"/>
       <c r="U21" s="25"/>
@@ -6046,11 +5892,9 @@
       <c r="AE21" s="25"/>
       <c r="AF21" s="30"/>
       <c r="AG21" s="9"/>
-      <c r="AL21" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" ht="12.75" customHeight="1">
+      <c r="AL21" s="2"/>
+    </row>
+    <row r="22">
       <c r="A22" s="8"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -6085,7 +5929,7 @@
       <c r="AF22" s="30"/>
       <c r="AG22" s="9"/>
     </row>
-    <row r="23" spans="1:38" ht="12.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="8"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -6103,7 +5947,6 @@
       <c r="O23" s="25"/>
       <c r="P23" s="25"/>
       <c r="Q23" s="25"/>
-      <c r="R23"/>
       <c r="S23" s="26"/>
       <c r="T23" s="25"/>
       <c r="U23" s="25"/>
@@ -6120,7 +5963,7 @@
       <c r="AF23" s="30"/>
       <c r="AG23" s="9"/>
     </row>
-    <row r="24" spans="1:38" ht="12.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="8"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -6137,12 +5980,10 @@
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
-      <c r="Q24"/>
       <c r="R24" s="84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S24" s="90"/>
-      <c r="T24"/>
       <c r="U24" s="25"/>
       <c r="V24" s="26"/>
       <c r="W24" s="25"/>
@@ -6157,10 +5998,10 @@
       <c r="AF24" s="30"/>
       <c r="AG24" s="9"/>
       <c r="AI24" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38" ht="12.75" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="8"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -6178,7 +6019,6 @@
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
       <c r="Q25" s="25"/>
-      <c r="R25"/>
       <c r="S25" s="26"/>
       <c r="T25" s="25"/>
       <c r="U25" s="25"/>
@@ -6195,10 +6035,10 @@
       <c r="AF25" s="30"/>
       <c r="AG25" s="9"/>
       <c r="AJ25" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:38" ht="12.75" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="8"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -6233,7 +6073,7 @@
       <c r="AF26" s="30"/>
       <c r="AG26" s="9"/>
     </row>
-    <row r="27" spans="1:38" ht="12.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="8"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -6268,7 +6108,7 @@
       <c r="AF27" s="30"/>
       <c r="AG27" s="9"/>
     </row>
-    <row r="28" spans="1:38" ht="12.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="8"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -6303,7 +6143,7 @@
       <c r="AF28" s="30"/>
       <c r="AG28" s="9"/>
     </row>
-    <row r="29" spans="1:38" ht="12.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="8"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -6338,7 +6178,7 @@
       <c r="AF29" s="30"/>
       <c r="AG29" s="9"/>
     </row>
-    <row r="30" spans="1:38" ht="12.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="8"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -6373,7 +6213,7 @@
       <c r="AF30" s="30"/>
       <c r="AG30" s="9"/>
     </row>
-    <row r="31" spans="1:38" ht="12.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="8"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -6408,7 +6248,7 @@
       <c r="AF31" s="30"/>
       <c r="AG31" s="9"/>
     </row>
-    <row r="32" spans="1:38" ht="12.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="8"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -6443,7 +6283,7 @@
       <c r="AF32" s="30"/>
       <c r="AG32" s="9"/>
     </row>
-    <row r="33" spans="1:33" ht="12.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="8"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -6478,7 +6318,7 @@
       <c r="AF33" s="30"/>
       <c r="AG33" s="9"/>
     </row>
-    <row r="34" spans="1:33" ht="12.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="8"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -6513,7 +6353,7 @@
       <c r="AF34" s="30"/>
       <c r="AG34" s="9"/>
     </row>
-    <row r="35" spans="1:33" ht="12.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="8"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -6548,7 +6388,7 @@
       <c r="AF35" s="30"/>
       <c r="AG35" s="9"/>
     </row>
-    <row r="36" spans="1:33" ht="12.75" customHeight="1">
+    <row r="36">
       <c r="A36" s="8"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -6583,7 +6423,7 @@
       <c r="AF36" s="30"/>
       <c r="AG36" s="9"/>
     </row>
-    <row r="37" spans="1:33" ht="12.75" customHeight="1">
+    <row r="37">
       <c r="A37" s="8"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -6618,7 +6458,7 @@
       <c r="AF37" s="30"/>
       <c r="AG37" s="9"/>
     </row>
-    <row r="38" spans="1:33" ht="12.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="8"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -6653,7 +6493,7 @@
       <c r="AF38" s="30"/>
       <c r="AG38" s="9"/>
     </row>
-    <row r="39" spans="1:33" ht="12.75" customHeight="1">
+    <row r="39">
       <c r="A39" s="8"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -6688,7 +6528,7 @@
       <c r="AF39" s="30"/>
       <c r="AG39" s="9"/>
     </row>
-    <row r="40" spans="1:33" ht="12.75" customHeight="1">
+    <row r="40">
       <c r="A40" s="8"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -6723,7 +6563,7 @@
       <c r="AF40" s="30"/>
       <c r="AG40" s="9"/>
     </row>
-    <row r="41" spans="1:33" ht="12.75" customHeight="1">
+    <row r="41">
       <c r="A41" s="8"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -6758,7 +6598,7 @@
       <c r="AF41" s="30"/>
       <c r="AG41" s="9"/>
     </row>
-    <row r="42" spans="1:33" ht="12.75" customHeight="1">
+    <row r="42">
       <c r="A42" s="8"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -6793,11 +6633,11 @@
       <c r="AF42" s="25"/>
       <c r="AG42" s="9"/>
     </row>
-    <row r="43" spans="1:33" ht="12.75" customHeight="1">
+    <row r="43">
       <c r="A43" s="8"/>
       <c r="AG43" s="9"/>
     </row>
-    <row r="44" spans="1:33" ht="12.75" customHeight="1">
+    <row r="44">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -6834,20 +6674,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="H19:P19"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="R24:S24"/>
     <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="M2:AC2"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H19:P19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R24:S24"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -6866,7 +6706,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.5" style="33" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="33" customWidth="1"/>
@@ -6877,45 +6717,45 @@
     <col min="7" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" ht="18">
       <c r="A1" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="33" t="s">
+    <row r="4">
+      <c r="A4" s="34" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="34" t="s">
+      <c r="B4" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="C4" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="D4" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="E4" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="F4" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1">
+    </row>
+    <row r="5" customHeight="1" ht="30">
       <c r="A5" s="35">
         <v>6</v>
       </c>
       <c r="B5" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>46</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>47</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="35">
@@ -6925,33 +6765,33 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1">
+    <row r="6" customHeight="1" ht="30">
       <c r="A6" s="35">
         <v>9</v>
       </c>
       <c r="B6" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>48</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>49</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="35">
         <v>1234</v>
       </c>
       <c r="F6" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="30">
+      <c r="A7" s="91" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="91" t="s">
+      <c r="B7" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>51</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>52</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="40">
@@ -6961,177 +6801,177 @@
         <v>1234.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1">
+    <row r="8" customHeight="1" ht="30">
       <c r="A8" s="92"/>
       <c r="B8" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="39">
         <v>1234</v>
       </c>
       <c r="F8" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="14"/>
+    <row r="10">
+      <c r="B10" s="43"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:6">
-      <c r="B10" s="43"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="33" t="s">
+    <row r="12">
+      <c r="A12" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" ht="40">
+      <c r="A13" s="35" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="34" t="s">
+      <c r="B13" s="35" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="40.5">
-      <c r="A13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>56</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>57</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" ht="40">
+      <c r="A14" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="40.5">
-      <c r="A14" s="35" t="s">
+      <c r="B14" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>59</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>60</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" ht="30">
+      <c r="A18" s="35" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1">
-      <c r="A18" s="35" t="s">
+      <c r="B18" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="C18" s="36" t="s">
         <v>63</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>64</v>
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="44" t="s">
+    </row>
+    <row r="19" customHeight="1" ht="30">
+      <c r="A19" s="35" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1">
-      <c r="A19" s="35" t="s">
+      <c r="B19" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="C19" s="36" t="s">
         <v>68</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>69</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="45">
+        <v>0.7948495370370371</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" ht="30">
+      <c r="A20" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="45">
-        <v>0.79484953703703709</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1">
-      <c r="A20" s="35" t="s">
+      <c r="B20" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>71</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>72</v>
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="46">
-        <v>0.79484953703703709</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.7948495370370371</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="33" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+    <row r="25">
       <c r="B25" s="43"/>
     </row>
   </sheetData>
